--- a/results/graphs-wordle.xlsx
+++ b/results/graphs-wordle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucin\Desktop\wordle-optimization-GAME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucin\Desktop\wordle-optimization-GAME\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B8CFB4-F845-4BA1-B78B-6574D6BE1702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0CFCC-9BA6-49E5-8C3A-E493EDFB7658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3BDDEA1-63C4-4C31-AC71-3CE48A408F14}"/>
   </bookViews>
@@ -205,7 +205,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Regular</c:v>
+            <c:v>Normal</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -679,7 +679,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Regular</c:v>
+            <c:v>Normal</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2602,7 +2602,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results/graphs-wordle.xlsx
+++ b/results/graphs-wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucin\Desktop\wordle-optimization-GAME\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0CFCC-9BA6-49E5-8C3A-E493EDFB7658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282A9682-F289-45F2-85DE-CA8033E1B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A3BDDEA1-63C4-4C31-AC71-3CE48A408F14}"/>
   </bookViews>
@@ -160,7 +160,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t>Distribution of Guesses</a:t>
+              <a:t>Solve rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -401,10 +401,10 @@
                   <c:v>0.45917926565874728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42591792656587474</c:v>
+                  <c:v>0.42634989200863932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5723542116630671E-2</c:v>
+                  <c:v>5.529157667386609E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.0475161987041037E-3</c:v>
@@ -634,7 +634,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t>Cumulative Distribution of Guesses</a:t>
+              <a:t>Cumulative solve rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -875,7 +875,7 @@
                   <c:v>0.51144708423326135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93736501079913603</c:v>
+                  <c:v>0.93779697624190062</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9930885529157667</c:v>
@@ -2602,7 +2602,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2702,7 +2702,7 @@
         <v>973</v>
       </c>
       <c r="D5">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>0.42591792656587474</v>
+        <v>0.42634989200863932</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -2722,7 +2722,7 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>5.5723542116630671E-2</v>
+        <v>5.529157667386609E-2</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D14">
         <f>SUM(D2:D5)</f>
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>0.93736501079913603</v>
+        <v>0.93779697624190062</v>
       </c>
       <c r="I14" s="1"/>
     </row>
